--- a/public/Puestos-Naturaleza.xlsx
+++ b/public/Puestos-Naturaleza.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>Òrgano</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>Órgano</t>
   </si>
   <si>
     <t>Despacho Ministerial</t>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Asesora Legal</t>
+  </si>
+  <si>
+    <t>Auxiliar Administrativo</t>
   </si>
   <si>
     <t>Especialista Administrativo</t>
@@ -439,7 +442,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -548,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -562,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -576,15 +579,29 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" t="s">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>13</v>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
